--- a/UG_data_analysis/MyHLM.xlsx
+++ b/UG_data_analysis/MyHLM.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Level</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>age*</t>
+  </si>
+  <si>
+    <t>Fairness (ratio + stake size)</t>
   </si>
 </sst>
 </file>
@@ -750,7 +753,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -775,7 +778,7 @@
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -829,7 +832,7 @@
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -841,11 +844,11 @@
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
     </row>

--- a/UG_data_analysis/MyHLM.xlsx
+++ b/UG_data_analysis/MyHLM.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/LAB/Suicide_UG/UG_data_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Suicide_UG\UG_data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>Level</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Participants Type(clinical)</t>
   </si>
   <si>
-    <t>Framing condition</t>
-  </si>
-  <si>
     <t>age*</t>
   </si>
   <si>
@@ -105,7 +102,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -248,6 +245,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -269,7 +269,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -290,6 +296,2507 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD24BB2E-FE7F-445B-ACB7-BB21082C25F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="895350" y="4276725"/>
+          <a:ext cx="7324725" cy="2676525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2056" name="Group 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97366F18-CE52-4E34-81E7-E24ACEB2E9BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7696200" y="2076450"/>
+          <a:ext cx="7324725" cy="2943225"/>
+          <a:chOff x="984" y="403"/>
+          <a:chExt cx="769" cy="309"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2055" name="AutoShape 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67D1C7D4-BDDD-464B-B443-8B969BC69E52}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeAspect="1" noChangeArrowheads="1" noTextEdit="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="984" y="403"/>
+            <a:ext cx="769" cy="309"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2057" name="Rectangle 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9467BC08-6277-46A5-8380-2BA4AC594E10}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="988" y="405"/>
+            <a:ext cx="46" cy="26"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Level</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2058" name="Rectangle 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62D0ABC-E051-4F64-A601-89000F47D729}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1076" y="405"/>
+            <a:ext cx="163" cy="26"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Hierarchical Level </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2059" name="Rectangle 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE8D815-95DD-419D-8A7E-CE9AC27E3CD7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1325" y="405"/>
+            <a:ext cx="83" cy="26"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Variables</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2060" name="Rectangle 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC4D869-501A-4FFC-85BE-C92F21DBCD1C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="988" y="433"/>
+            <a:ext cx="61" cy="26"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Level 2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2061" name="Rectangle 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EF60FC5-BA2F-43BE-9634-AECEB51D0578}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1076" y="433"/>
+            <a:ext cx="112" cy="26"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Participants </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2062" name="Rectangle 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8CA4EC-FC13-4990-89AF-0E4ED185A2AE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1325" y="433"/>
+            <a:ext cx="224" cy="26"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Participants Type(clinical)</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2063" name="Rectangle 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D21714FD-F38B-4814-B7F6-8F3197CD9A64}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1325" y="461"/>
+            <a:ext cx="42" cy="26"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>age*</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2064" name="Rectangle 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB654765-0104-4CC3-AAC8-0314711C3D98}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1325" y="489"/>
+            <a:ext cx="226" cy="26"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Depression(HRSD NO SUI)</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2065" name="Rectangle 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E37C18-A836-4701-8474-D262C8545484}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1325" y="517"/>
+            <a:ext cx="175" cy="26"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Household Income*</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2066" name="Rectangle 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C227CF-4D00-4AB5-B50B-BC08A6D17D15}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1325" y="545"/>
+            <a:ext cx="188" cy="26"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Cognitive ability(DRS)</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2067" name="Rectangle 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35FE72A0-A15B-4553-A4D2-3CD60496E4E6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1325" y="573"/>
+            <a:ext cx="65" cy="26"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Gender</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2068" name="Rectangle 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDEA7BA5-507F-4829-AFBB-CAF149E8CB51}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="988" y="629"/>
+            <a:ext cx="61" cy="26"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Level 1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2069" name="Rectangle 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A69B64-8F93-445B-A293-4B9D3FBD037A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1076" y="629"/>
+            <a:ext cx="249" cy="26"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Individual Ultimatum game </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2070" name="Rectangle 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03CFDAF-0A09-46C5-B081-BAE419405B51}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1325" y="629"/>
+            <a:ext cx="235" cy="26"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Fairness (ratio + stake size)</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2071" name="Rectangle 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A134AA-1539-44D3-91E0-0480EA120764}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1325" y="657"/>
+            <a:ext cx="195" cy="26"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Social framing context</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2072" name="Rectangle 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A63BC19-F7B8-492C-85AC-6E1A95769179}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1325" y="685"/>
+            <a:ext cx="195" cy="26"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Offer Acceptance (DV)</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2073" name="Line 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8343B7CC-ED78-440D-A5F5-96F9599102A2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="984" y="403"/>
+            <a:ext cx="768" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="D4D4D4"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2074" name="Rectangle 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E56172-2283-46CD-8C7B-A93A6C56165E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="984" y="403"/>
+            <a:ext cx="768" cy="1"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="D4D4D4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2075" name="Line 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E9B5342-6485-441C-A004-8111EDDF072A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="984" y="431"/>
+            <a:ext cx="768" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="D4D4D4"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2076" name="Rectangle 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54175A8F-5F13-4580-9D07-C72E4B99B575}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="984" y="431"/>
+            <a:ext cx="768" cy="1"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="D4D4D4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2077" name="Line 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{281821A7-0DE7-4142-B937-0EC44A0B2D00}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="984" y="459"/>
+            <a:ext cx="768" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="D4D4D4"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2078" name="Rectangle 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59D4A496-63DF-41E1-B7AE-4AA697FF2854}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="984" y="459"/>
+            <a:ext cx="768" cy="1"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="D4D4D4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2079" name="Line 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC4731EE-13A3-4A34-B7C7-1F507E9204FF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="984" y="487"/>
+            <a:ext cx="768" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="D4D4D4"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2080" name="Rectangle 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F42795D3-6B72-4372-BDFA-22AD94B012C5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="984" y="487"/>
+            <a:ext cx="768" cy="1"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="D4D4D4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2081" name="Line 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD229BB1-FBBC-4217-BEED-EFDBA079388A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="984" y="515"/>
+            <a:ext cx="768" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="D4D4D4"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2082" name="Rectangle 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE7DF072-210E-49B9-95BB-482052688370}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="984" y="515"/>
+            <a:ext cx="768" cy="1"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="D4D4D4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2083" name="Line 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97CF4C5F-3232-42C9-939F-59CED983FF48}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="984" y="543"/>
+            <a:ext cx="768" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="D4D4D4"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2084" name="Rectangle 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A05AE3D-6B48-4592-99BA-4D1AEFAF69EE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="984" y="543"/>
+            <a:ext cx="768" cy="1"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="D4D4D4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2085" name="Line 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F656557F-6A83-421C-8ABE-C834155452D4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="984" y="571"/>
+            <a:ext cx="768" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="D4D4D4"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2086" name="Rectangle 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{831AD15F-3792-4037-A293-06F5276DBEF5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="984" y="571"/>
+            <a:ext cx="768" cy="1"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="D4D4D4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2087" name="Line 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF4DDFF4-2CF2-4CC4-B3AA-43BD6E62CD8C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="984" y="599"/>
+            <a:ext cx="768" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="D4D4D4"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2088" name="Rectangle 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FBCFB42-4C40-4A14-8699-08DCE15EC9A5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="984" y="599"/>
+            <a:ext cx="768" cy="1"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="D4D4D4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2089" name="Line 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3285CDCF-EB16-4521-AFD8-AB82EA8A550A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="984" y="627"/>
+            <a:ext cx="768" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="D4D4D4"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2090" name="Rectangle 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894714EE-7367-42C3-8AB5-14134E1C505C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="984" y="627"/>
+            <a:ext cx="768" cy="1"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="D4D4D4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2091" name="Line 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB2740DD-0909-4A2A-9EE2-554F88250AE1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="984" y="655"/>
+            <a:ext cx="768" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="D4D4D4"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2092" name="Rectangle 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43D26EF5-7344-4644-A83B-91F9F1002DB0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="984" y="655"/>
+            <a:ext cx="768" cy="1"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="D4D4D4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2093" name="Line 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4CEEF0A-D1DB-4F07-8001-BE8EDA6AC572}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="984" y="683"/>
+            <a:ext cx="768" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="D4D4D4"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2094" name="Rectangle 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{623E245A-F167-4E99-B5D7-08C66978D99D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="984" y="683"/>
+            <a:ext cx="768" cy="1"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="D4D4D4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2095" name="Line 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3D7FE36-5321-4907-8321-E267716962E0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="984" y="711"/>
+            <a:ext cx="768" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="D4D4D4"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2096" name="Rectangle 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D65CEB6-2F0B-44D3-9452-FE70BAE9A9B3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="984" y="711"/>
+            <a:ext cx="768" cy="1"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="D4D4D4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2097" name="Line 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFFEE328-15D4-4DEE-9148-EDF794F59D79}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="984" y="403"/>
+            <a:ext cx="0" cy="309"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="D4D4D4"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2098" name="Rectangle 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEF0006C-7C81-4CD8-BF3A-6E3B4B532D1D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="984" y="403"/>
+            <a:ext cx="1" cy="309"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="D4D4D4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2099" name="Line 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34A2FF8E-9506-467B-81BB-D9DCBCC9212D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1072" y="403"/>
+            <a:ext cx="0" cy="309"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="D4D4D4"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2100" name="Rectangle 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{631167E6-1478-4A9C-B827-6D7FD8C33420}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1072" y="403"/>
+            <a:ext cx="1" cy="309"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="D4D4D4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2101" name="Line 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2F84DA-B251-408B-875D-96C4A2DDAC4C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1321" y="403"/>
+            <a:ext cx="0" cy="309"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="D4D4D4"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2102" name="Rectangle 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60EC9687-7BFD-40D3-9030-1698A0ACA05A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1321" y="403"/>
+            <a:ext cx="1" cy="309"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="D4D4D4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2103" name="Line 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3AFDD56-60E7-401F-957B-7BE758628871}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1752" y="403"/>
+            <a:ext cx="0" cy="309"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="D4D4D4"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2104" name="Rectangle 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95A47AAC-DC72-4D13-9761-B8D8911C5BB2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1752" y="403"/>
+            <a:ext cx="1" cy="309"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="D4D4D4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -557,28 +3064,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
@@ -591,7 +3098,7 @@
       </c>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
@@ -604,7 +3111,7 @@
       </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="8" t="s">
         <v>5</v>
@@ -617,7 +3124,7 @@
       </c>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -627,7 +3134,7 @@
       <c r="E5" s="8"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -636,7 +3143,7 @@
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -645,7 +3152,7 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -654,7 +3161,7 @@
       </c>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -663,7 +3170,7 @@
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -672,7 +3179,7 @@
       </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="8" t="s">
         <v>18</v>
@@ -685,7 +3192,7 @@
       </c>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -694,20 +3201,20 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -716,31 +3223,31 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -749,20 +3256,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -774,9 +3281,9 @@
       </c>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>17</v>
@@ -786,19 +3293,19 @@
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
@@ -806,7 +3313,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
@@ -814,7 +3321,7 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
@@ -822,56 +3329,49 @@
       </c>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="C8" s="11" t="s">
-        <v>6</v>
-      </c>
+    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>23</v>
+    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
@@ -879,8 +3379,9 @@
       </c>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>